--- a/working_project/julia_blog/YNAB_files/user_input.xlsx
+++ b/working_project/julia_blog/YNAB_files/user_input.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia.schmidt\Documents\GitHub\Perso\working_project\julia_blog\YNAB_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B8FA9B-2120-4031-914E-2770D3F17C52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$129</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -904,8 +923,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -968,6 +987,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1014,7 +1041,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1046,9 +1073,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1080,6 +1125,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1255,14 +1318,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1323,7 +1395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1355,7 +1427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1387,7 +1459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1419,7 +1491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1451,7 +1523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1483,7 +1555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1515,7 +1587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1547,7 +1619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1579,7 +1651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1611,7 +1683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1643,7 +1715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1675,7 +1747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1707,7 +1779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1739,7 +1811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1771,7 +1843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1803,7 +1875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1835,7 +1907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1867,7 +1939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1899,7 +1971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1931,7 +2003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1963,7 +2035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1995,7 +2067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2027,7 +2099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2059,7 +2131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2091,7 +2163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2123,7 +2195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2155,7 +2227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2187,7 +2259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2219,7 +2291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2251,7 +2323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2283,7 +2355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2315,7 +2387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2347,7 +2419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2379,7 +2451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2411,7 +2483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2443,7 +2515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2475,7 +2547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2507,7 +2579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2539,7 +2611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2571,7 +2643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2591,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2603,7 +2675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2635,7 +2707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2667,7 +2739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2687,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2699,7 +2771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2731,7 +2803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2751,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2763,7 +2835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2795,7 +2867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2827,7 +2899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2859,7 +2931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2891,7 +2963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2923,7 +2995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2955,7 +3027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2987,7 +3059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3019,7 +3091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3051,7 +3123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3083,7 +3155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3115,7 +3187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3147,7 +3219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3179,7 +3251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3211,7 +3283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3243,7 +3315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3275,7 +3347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3307,7 +3379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3339,7 +3411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3371,7 +3443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3403,7 +3475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3435,7 +3507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3467,7 +3539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3499,7 +3571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3531,7 +3603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3563,7 +3635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3595,7 +3667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3612,10 +3684,10 @@
         <v>286</v>
       </c>
       <c r="F74">
-        <v>33.3333333333333</v>
+        <v>26</v>
       </c>
       <c r="G74">
-        <v>400</v>
+        <v>312</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3627,7 +3699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3644,10 +3716,10 @@
         <v>286</v>
       </c>
       <c r="F75">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G75">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3659,7 +3731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3676,10 +3748,10 @@
         <v>286</v>
       </c>
       <c r="F76">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G76">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -3691,7 +3763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3708,10 +3780,10 @@
         <v>286</v>
       </c>
       <c r="F77">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="G77">
-        <v>1000</v>
+        <v>828</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -3723,7 +3795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3740,10 +3812,10 @@
         <v>286</v>
       </c>
       <c r="F78">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G78">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -3755,7 +3827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3787,7 +3859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3819,7 +3891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3851,7 +3923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3871,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>11065.2</v>
+        <v>3000</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -3883,7 +3955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3915,7 +3987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3932,7 +4004,7 @@
         <v>288</v>
       </c>
       <c r="F84">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3947,7 +4019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3964,7 +4036,7 @@
         <v>288</v>
       </c>
       <c r="F85">
-        <v>500</v>
+        <v>36</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3979,7 +4051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3996,7 +4068,7 @@
         <v>289</v>
       </c>
       <c r="F86">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -4011,7 +4083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4028,7 +4100,7 @@
         <v>289</v>
       </c>
       <c r="F87">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -4043,7 +4115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4060,7 +4132,7 @@
         <v>289</v>
       </c>
       <c r="F88">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -4075,7 +4147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4092,7 +4164,7 @@
         <v>289</v>
       </c>
       <c r="F89">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -4107,7 +4179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4124,7 +4196,7 @@
         <v>289</v>
       </c>
       <c r="F90">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -4139,7 +4211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4156,7 +4228,7 @@
         <v>289</v>
       </c>
       <c r="F91">
-        <v>280</v>
+        <v>46</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -4171,7 +4243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4188,7 +4260,7 @@
         <v>289</v>
       </c>
       <c r="F92">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -4203,7 +4275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4235,7 +4307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4252,13 +4324,13 @@
         <v>289</v>
       </c>
       <c r="F94">
-        <v>1260.62</v>
+        <v>614</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>0.682539682539683</v>
+        <v>0.7</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -4267,7 +4339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4284,7 +4356,7 @@
         <v>290</v>
       </c>
       <c r="F95">
-        <v>4.65</v>
+        <v>4</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -4299,7 +4371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4331,7 +4403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4348,7 +4420,7 @@
         <v>290</v>
       </c>
       <c r="F97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G97">
         <v>50</v>
@@ -4363,7 +4435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4380,7 +4452,7 @@
         <v>290</v>
       </c>
       <c r="F98">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -4395,7 +4467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4412,7 +4484,7 @@
         <v>290</v>
       </c>
       <c r="F99">
-        <v>13.09</v>
+        <v>9</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -4427,7 +4499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4444,7 +4516,7 @@
         <v>291</v>
       </c>
       <c r="F100">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -4459,7 +4531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4476,10 +4548,10 @@
         <v>291</v>
       </c>
       <c r="F101">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G101">
-        <v>800</v>
+        <v>264</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4491,7 +4563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4508,10 +4580,10 @@
         <v>291</v>
       </c>
       <c r="F102">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G102">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4523,7 +4595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4540,10 +4612,10 @@
         <v>291</v>
       </c>
       <c r="F103">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G103">
-        <v>500</v>
+        <v>648</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -4555,7 +4627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4572,10 +4644,10 @@
         <v>291</v>
       </c>
       <c r="F104">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G104">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -4587,7 +4659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4604,10 +4676,10 @@
         <v>291</v>
       </c>
       <c r="F105">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G105">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -4619,7 +4691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4639,7 +4711,7 @@
         <v>10</v>
       </c>
       <c r="G106">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -4651,7 +4723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4668,10 +4740,10 @@
         <v>291</v>
       </c>
       <c r="F107">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G107">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -4683,7 +4755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4703,7 +4775,7 @@
         <v>20</v>
       </c>
       <c r="G108">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -4715,7 +4787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4732,10 +4804,10 @@
         <v>291</v>
       </c>
       <c r="F109">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G109">
-        <v>500</v>
+        <v>348</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -4747,7 +4819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4764,10 +4836,10 @@
         <v>292</v>
       </c>
       <c r="F110">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G110">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -4779,7 +4851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4796,10 +4868,10 @@
         <v>292</v>
       </c>
       <c r="F111">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G111">
-        <v>500</v>
+        <v>696</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -4811,7 +4883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4828,10 +4900,10 @@
         <v>292</v>
       </c>
       <c r="F112">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G112">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -4843,7 +4915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4860,10 +4932,10 @@
         <v>292</v>
       </c>
       <c r="F113">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G113">
-        <v>300</v>
+        <v>36</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -4875,7 +4947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4907,7 +4979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4924,10 +4996,10 @@
         <v>292</v>
       </c>
       <c r="F115">
-        <v>200</v>
+        <v>84</v>
       </c>
       <c r="G115">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -4939,7 +5011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4971,7 +5043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4988,10 +5060,10 @@
         <v>292</v>
       </c>
       <c r="F117">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G117">
-        <v>400</v>
+        <v>660</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -5003,7 +5075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5020,10 +5092,10 @@
         <v>292</v>
       </c>
       <c r="F118">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G118">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -5035,7 +5107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5052,10 +5124,10 @@
         <v>292</v>
       </c>
       <c r="F119">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G119">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -5067,7 +5139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5084,10 +5156,10 @@
         <v>292</v>
       </c>
       <c r="F120">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="G120">
-        <v>2000</v>
+        <v>420</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -5099,7 +5171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5119,7 +5191,7 @@
         <v>30</v>
       </c>
       <c r="G121">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -5131,7 +5203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5148,10 +5220,10 @@
         <v>293</v>
       </c>
       <c r="F122">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G122">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -5163,7 +5235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5195,7 +5267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5212,10 +5284,10 @@
         <v>293</v>
       </c>
       <c r="F124">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G124">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -5227,7 +5299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5244,7 +5316,7 @@
         <v>293</v>
       </c>
       <c r="F125">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -5259,7 +5331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5276,7 +5348,7 @@
         <v>293</v>
       </c>
       <c r="F126">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -5291,7 +5363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5308,7 +5380,7 @@
         <v>293</v>
       </c>
       <c r="F127">
-        <v>350</v>
+        <v>226</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -5323,7 +5395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5340,7 +5412,7 @@
         <v>293</v>
       </c>
       <c r="F128">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -5355,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
